--- a/test/demand18.xlsx
+++ b/test/demand18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin Yusnoveri\Desktop\Heavensward\InventoryManagementModel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524EF11C-DC66-41DB-94A0-2347A38039F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2982C32-D67E-4C8F-AF98-4C822320021C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
